--- a/biology/Médecine/Constantin_Ion_Parhon/Constantin_Ion_Parhon.xlsx
+++ b/biology/Médecine/Constantin_Ion_Parhon/Constantin_Ion_Parhon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Constantin Ion Parhon, né le 15 octobre 1874 à Câmpulung et mort le 9 août 1969 à Bucarest, est un scientifique et homme d'État roumain, chef de l'État de 1947 à 1952.
@@ -513,7 +525,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a fait ses études à Bucarest, où il fait son doctorat en médecine. Il est président de la Société des médecins et naturalistes de Iași, directeur d'hôpitaux, professeur, directeur d'instituts de médecine et membre de l'Académie roumaine. Il est docteur honoris causa de l'université Caroline de Prague en 1948. 
 Neuropsychiatre et endocrinologue, C.I. Parhon enseigne la neurologie et la psychiatrie à la faculté de médecine de l'université Alexandru Ioan Cuza de Iași (1912-1933), et, à partir de 1933, l'endocrinologie à la faculté de médecine de l'université de Bucarest. Parhon est le fondateur de l'école roumaine d'endocrinologie. En 1909 C. I. Parhon signe avec M. Goldstein le premier livre sur l'endocrinologie, Secrețiile interne (Sécrétions Internes). Plus tard, il publie un manuel d'endocrinologie, cosigné avec M. Goldstein et St. M. Milcu (3 volumes, 1945-1949). Parhon publie plus de 400 articles et est connu pour son esprit encyclopédique. À côté de ce travail, ses autres œuvres connues sont L'âge avancé et son traitement (1948), La biologie de l'âge (1955), et Travaux choisis (5 volumes, 1954-1962).
